--- a/data/trans_dic/P14B24_2016_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14B24_2016_2023-Estudios-trans_dic.xlsx
@@ -612,13 +612,13 @@
         <v>0.01421361764229213</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.05057699706544629</v>
+        <v>0.05057699706544628</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.07870016635820552</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09290876155150556</v>
+        <v>0.09290876155150558</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0508871149465137</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00745401560393916</v>
+        <v>0.007474794145992936</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03594026236384749</v>
+        <v>0.03542172584564756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06229733877993623</v>
+        <v>0.06320791729292041</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07818880883084445</v>
+        <v>0.07746707212746816</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04010449114144254</v>
+        <v>0.04110959265063539</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06457962260761481</v>
+        <v>0.06463127065240533</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02444689547481176</v>
+        <v>0.02464296285320604</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07173922625493462</v>
+        <v>0.07095613871543791</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09784187961922759</v>
+        <v>0.09826421073337628</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1109324271741048</v>
+        <v>0.1085283567455823</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06235756077594752</v>
+        <v>0.0632201633012546</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08922515483486096</v>
+        <v>0.08844824923975386</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.03252897640293884</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05782531053757295</v>
+        <v>0.05782531053757294</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02195559124248097</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007755931761188292</v>
+        <v>0.007667591874014343</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01637040559863397</v>
+        <v>0.01647768236310765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02558448578298483</v>
+        <v>0.02500417649058699</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05008463080883181</v>
+        <v>0.04977888061654242</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01770543682130835</v>
+        <v>0.01782123102654741</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03397407157124558</v>
+        <v>0.03426686937300803</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01688709601531857</v>
+        <v>0.01753689813005398</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02958148922645923</v>
+        <v>0.03004551866331637</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04255239009159516</v>
+        <v>0.04200845550031704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06797479507714524</v>
+        <v>0.06791036230846947</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0271988526460972</v>
+        <v>0.02726980560376131</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04553880858567085</v>
+        <v>0.04575454079965485</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01531886872097706</v>
+        <v>0.01586223700047073</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001840671879434965</v>
+        <v>0.001848057574126126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02679864228072514</v>
+        <v>0.0270660413662449</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002429314929389565</v>
+        <v>0.00180129999568049</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0238721635583562</v>
+        <v>0.02405425327745326</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01119548639113989</v>
+        <v>0.01178058231643026</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04566841876308911</v>
+        <v>0.04527968825826723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01560398841536839</v>
+        <v>0.01545508860814029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05225000892356869</v>
+        <v>0.05349375223112279</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01037650273684305</v>
+        <v>0.01091398935569928</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0437420764608898</v>
+        <v>0.04271899794145271</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.04153534667938539</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06152770140838702</v>
+        <v>0.06152770140838703</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02660749286125293</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04505034616351378</v>
+        <v>0.04505034616351379</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007837789624814734</v>
+        <v>0.007833898811430711</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02275749944336293</v>
+        <v>0.02222403981732918</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03483519098328215</v>
+        <v>0.03470739436185389</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05478894188168888</v>
+        <v>0.05485673665918379</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02266714632695586</v>
+        <v>0.02273939698641144</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04085571375016393</v>
+        <v>0.04123705623630626</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01443762963839082</v>
+        <v>0.01481039864794052</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03437055226069251</v>
+        <v>0.03383415381595894</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04938843580219345</v>
+        <v>0.04916394463772203</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06954312000086255</v>
+        <v>0.0685451484244116</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03060104360279878</v>
+        <v>0.03060057757318071</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05008454528750519</v>
+        <v>0.050455910301997</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5623</v>
+        <v>5639</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20757</v>
+        <v>20458</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>61965</v>
+        <v>62870</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>64164</v>
+        <v>63572</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>70143</v>
+        <v>71901</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>90293</v>
+        <v>90365</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18441</v>
+        <v>18589</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41432</v>
+        <v>40980</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>97319</v>
+        <v>97739</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>91034</v>
+        <v>89061</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>109064</v>
+        <v>110573</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>124752</v>
+        <v>123666</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16097</v>
+        <v>15914</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36501</v>
+        <v>36740</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>50870</v>
+        <v>49716</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>108577</v>
+        <v>107914</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>71951</v>
+        <v>72422</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>149403</v>
+        <v>150691</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35049</v>
+        <v>36398</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>65958</v>
+        <v>66992</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>84607</v>
+        <v>83525</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>147361</v>
+        <v>147221</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>110530</v>
+        <v>110819</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>200260</v>
+        <v>201209</v>
       </c>
     </row>
     <row r="12">
@@ -1327,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10851</v>
+        <v>11236</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19694</v>
+        <v>19890</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2663</v>
+        <v>1974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>34453</v>
+        <v>34716</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6123</v>
+        <v>6443</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32349</v>
+        <v>32074</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8569</v>
+        <v>8487</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>38397</v>
+        <v>39311</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11373</v>
+        <v>11962</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>63130</v>
+        <v>61653</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>26466</v>
+        <v>26453</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>80006</v>
+        <v>78131</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>123041</v>
+        <v>122590</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>204000</v>
+        <v>204252</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>156603</v>
+        <v>157102</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>295753</v>
+        <v>298514</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48752</v>
+        <v>50011</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>120833</v>
+        <v>118947</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>174445</v>
+        <v>173652</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>258935</v>
+        <v>255219</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>211417</v>
+        <v>211414</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>362561</v>
+        <v>365249</v>
       </c>
     </row>
     <row r="20">
